--- a/resources/AbeilleDeamon/docs/CalibrageVolet.xlsx
+++ b/resources/AbeilleDeamon/docs/CalibrageVolet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="33340" yWindow="0" windowWidth="37860" windowHeight="29260" tabRatio="500"/>
+    <workbookView xWindow="7980" yWindow="1120" windowWidth="37860" windowHeight="37020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>Volet à 0% fermé: datas:02a69b010101000001</t>
   </si>
@@ -197,12 +197,30 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Calcule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -413,7 +431,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -436,8 +454,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -486,8 +530,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="48">
     <cellStyle name="Bon" xfId="2" builtinId="26"/>
     <cellStyle name="Entrée" xfId="3" builtinId="20"/>
     <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
@@ -499,6 +549,19 @@
     <cellStyle name="Lien hypertexte" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
@@ -508,6 +571,19 @@
     <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -871,55 +947,55 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0357142857142857</c:v>
+                  <c:v>0.03625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0857142857142858</c:v>
+                  <c:v>0.0866666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11169330477289</c:v>
+                  <c:v>0.112788671023965</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15</c:v>
+                  <c:v>0.15125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.196056461800406</c:v>
+                  <c:v>0.197429193899782</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.228571428571429</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.277783270170813</c:v>
+                  <c:v>0.279259259259259</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.321428571428571</c:v>
+                  <c:v>0.322916666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.428571428571429</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.469797330696985</c:v>
+                  <c:v>0.471176470588235</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.55</c:v>
+                  <c:v>0.55125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.572911517548196</c:v>
+                  <c:v>0.574117647058824</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.669006426099852</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.685714285714286</c:v>
+                  <c:v>0.686666666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.772219476025704</c:v>
+                  <c:v>0.772941176470588</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.835714285714286</c:v>
+                  <c:v>0.83625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.888888888888889</c:v>
+                  <c:v>0.889259259259259</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1.0</c:v>
@@ -937,11 +1013,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2036661864"/>
-        <c:axId val="-2036548952"/>
+        <c:axId val="-2116292984"/>
+        <c:axId val="-2119026088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2036661864"/>
+        <c:axId val="-2116292984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -952,12 +1028,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2036548952"/>
+        <c:crossAx val="-2119026088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2036548952"/>
+        <c:axId val="-2119026088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -969,7 +1045,287 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2036661864"/>
+        <c:crossAx val="-2116292984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$O$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Command</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$N$53:$N$63</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3032</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.401901041666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.603716666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7009875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.797526041666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$O$53:$O$63</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$P$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calcule</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$N$53:$N$63</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3032</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.401901041666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.603716666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7009875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.797526041666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$P$53:$P$63</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.174527940714286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.332288365714286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.484288365714286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.607938122558594</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.715334769285714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.808781969285714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.880648092723214</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.935935974121094</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.977158569285714</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2094356744"/>
+        <c:axId val="-2094372872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2094356744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2094372872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2094372872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2094356744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1018,6 +1374,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2724150</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1348,10 +1734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T62"/>
+  <dimension ref="B1:T90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="Q89" sqref="Q89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1463,14 +1849,14 @@
         <v>0</v>
       </c>
       <c r="F7" s="7">
-        <f>100%-H7</f>
+        <f t="shared" ref="F7:F17" si="0">100%-H7</f>
         <v>0</v>
       </c>
       <c r="G7" s="2">
         <v>210</v>
       </c>
       <c r="H7" s="3">
-        <f>G7/$G$5</f>
+        <f t="shared" ref="H7:H17" si="1">G7/$G$5</f>
         <v>1</v>
       </c>
       <c r="J7" s="2"/>
@@ -1481,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="6">
-        <f>M7/255</f>
+        <f t="shared" ref="N7:N17" si="2">M7/255</f>
         <v>3.9215686274509803E-3</v>
       </c>
       <c r="O7" s="8">
@@ -1508,25 +1894,25 @@
         <v>1</v>
       </c>
       <c r="C8" s="8">
-        <f t="shared" ref="C8:C17" si="0">255*D8</f>
+        <f t="shared" ref="C8:C17" si="3">255*D8</f>
         <v>25.5</v>
       </c>
       <c r="D8" s="7">
         <v>0.1</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E17" si="1">210-G8</f>
+        <f t="shared" ref="E8:E17" si="4">210-G8</f>
         <v>5</v>
       </c>
       <c r="F8" s="7">
-        <f>100%-H8</f>
+        <f t="shared" si="0"/>
         <v>2.3809523809523836E-2</v>
       </c>
       <c r="G8" s="2">
         <v>205</v>
       </c>
       <c r="H8" s="3">
-        <f>G8/$G$5</f>
+        <f t="shared" si="1"/>
         <v>0.97619047619047616</v>
       </c>
       <c r="J8" s="2"/>
@@ -1537,22 +1923,22 @@
         <v>62</v>
       </c>
       <c r="N8" s="6">
-        <f>M8/255</f>
+        <f t="shared" si="2"/>
         <v>0.24313725490196078</v>
       </c>
       <c r="O8" s="8">
-        <f t="shared" ref="O8:O17" si="2">$O$4*N8</f>
+        <f t="shared" ref="O8:O17" si="5">$O$4*N8</f>
         <v>51.058823529411761</v>
       </c>
       <c r="P8" s="4">
         <v>0.1</v>
       </c>
       <c r="Q8" s="10">
-        <f t="shared" ref="Q8:Q17" si="3">$O$4-O8</f>
+        <f t="shared" ref="Q8:Q17" si="6">$O$4-O8</f>
         <v>158.94117647058823</v>
       </c>
       <c r="R8" s="4">
-        <f t="shared" ref="R8:R17" si="4">100%-P8</f>
+        <f t="shared" ref="R8:R17" si="7">100%-P8</f>
         <v>0.9</v>
       </c>
       <c r="T8" s="2" t="s">
@@ -1564,25 +1950,25 @@
         <v>2</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="D9" s="7">
         <v>0.2</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F9" s="7">
-        <f>100%-H9</f>
+        <f t="shared" si="0"/>
         <v>4.7619047619047672E-2</v>
       </c>
       <c r="G9" s="2">
         <v>200</v>
       </c>
       <c r="H9" s="3">
-        <f>G9/$G$5</f>
+        <f t="shared" si="1"/>
         <v>0.95238095238095233</v>
       </c>
       <c r="J9" s="2"/>
@@ -1593,22 +1979,22 @@
         <v>92</v>
       </c>
       <c r="N9" s="6">
-        <f>M9/255</f>
+        <f t="shared" si="2"/>
         <v>0.36078431372549019</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>75.764705882352942</v>
       </c>
       <c r="P9" s="4">
         <v>0.2</v>
       </c>
       <c r="Q9" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>134.23529411764707</v>
       </c>
       <c r="R9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
       <c r="T9" s="2" t="s">
@@ -1620,25 +2006,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>76.5</v>
       </c>
       <c r="D10" s="7">
         <v>0.3</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="F10" s="7">
-        <f>100%-H10</f>
+        <f t="shared" si="0"/>
         <v>0.1428571428571429</v>
       </c>
       <c r="G10" s="2">
         <v>180</v>
       </c>
       <c r="H10" s="3">
-        <f>G10/$G$5</f>
+        <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="J10" s="2"/>
@@ -1649,22 +2035,22 @@
         <v>116</v>
       </c>
       <c r="N10" s="6">
-        <f>M10/255</f>
+        <f t="shared" si="2"/>
         <v>0.45490196078431372</v>
       </c>
       <c r="O10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>95.529411764705884</v>
       </c>
       <c r="P10" s="4">
         <v>0.3</v>
       </c>
       <c r="Q10" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>114.47058823529412</v>
       </c>
       <c r="R10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
       <c r="T10" s="5" t="s">
@@ -1676,25 +2062,25 @@
         <v>4</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="D11" s="7">
         <v>0.4</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="F11" s="7">
-        <f>100%-H11</f>
+        <f t="shared" si="0"/>
         <v>0.23809523809523814</v>
       </c>
       <c r="G11" s="2">
         <v>160</v>
       </c>
       <c r="H11" s="3">
-        <f>G11/$G$5</f>
+        <f t="shared" si="1"/>
         <v>0.76190476190476186</v>
       </c>
       <c r="J11" s="2"/>
@@ -1705,22 +2091,22 @@
         <v>188</v>
       </c>
       <c r="N11" s="6">
-        <f>M11/255</f>
+        <f t="shared" si="2"/>
         <v>0.73725490196078436</v>
       </c>
       <c r="O11" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>154.82352941176472</v>
       </c>
       <c r="P11" s="4">
         <v>0.4</v>
       </c>
       <c r="Q11" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>55.176470588235276</v>
       </c>
       <c r="R11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
       <c r="T11" s="2" t="s">
@@ -1732,25 +2118,25 @@
         <v>5</v>
       </c>
       <c r="C12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>127.5</v>
       </c>
       <c r="D12" s="7">
         <v>0.5</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="F12" s="7">
-        <f>100%-H12</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="G12" s="2">
         <v>140</v>
       </c>
       <c r="H12" s="3">
-        <f>G12/$G$5</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J12" s="2"/>
@@ -1761,22 +2147,22 @@
         <v>162</v>
       </c>
       <c r="N12" s="6">
-        <f>M12/255</f>
+        <f t="shared" si="2"/>
         <v>0.63529411764705879</v>
       </c>
       <c r="O12" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>133.41176470588235</v>
       </c>
       <c r="P12" s="4">
         <v>0.5</v>
       </c>
       <c r="Q12" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>76.588235294117652</v>
       </c>
       <c r="R12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="T12" s="2" t="s">
@@ -1788,25 +2174,25 @@
         <v>6</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>153</v>
       </c>
       <c r="D13" s="7">
         <v>0.6</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="F13" s="7">
-        <f>100%-H13</f>
+        <f t="shared" si="0"/>
         <v>0.4285714285714286</v>
       </c>
       <c r="G13" s="2">
         <v>120</v>
       </c>
       <c r="H13" s="3">
-        <f>G13/$G$5</f>
+        <f t="shared" si="1"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="J13" s="2"/>
@@ -1817,22 +2203,22 @@
         <v>183</v>
       </c>
       <c r="N13" s="6">
-        <f>M13/255</f>
+        <f t="shared" si="2"/>
         <v>0.71764705882352942</v>
       </c>
       <c r="O13" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>150.70588235294119</v>
       </c>
       <c r="P13" s="4">
         <v>0.6</v>
       </c>
       <c r="Q13" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>59.294117647058812</v>
       </c>
       <c r="R13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
       <c r="T13" s="2" t="s">
@@ -1844,25 +2230,25 @@
         <v>7</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>178.5</v>
       </c>
       <c r="D14" s="7">
         <v>0.7</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="F14" s="7">
-        <f>100%-H14</f>
+        <f t="shared" si="0"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="G14" s="2">
         <v>90</v>
       </c>
       <c r="H14" s="3">
-        <f>G14/$G$5</f>
+        <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="J14" s="2"/>
@@ -1873,22 +2259,22 @@
         <v>201</v>
       </c>
       <c r="N14" s="6">
-        <f>M14/255</f>
+        <f t="shared" si="2"/>
         <v>0.78823529411764703</v>
       </c>
       <c r="O14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>165.52941176470588</v>
       </c>
       <c r="P14" s="4">
         <v>0.7</v>
       </c>
       <c r="Q14" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44.470588235294116</v>
       </c>
       <c r="R14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="T14" s="2" t="s">
@@ -1900,25 +2286,25 @@
         <v>8</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>204</v>
       </c>
       <c r="D15" s="7">
         <v>0.8</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="F15" s="7">
-        <f>100%-H15</f>
+        <f t="shared" si="0"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="G15" s="2">
         <v>60</v>
       </c>
       <c r="H15" s="3">
-        <f>G15/$G$5</f>
+        <f t="shared" si="1"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="J15" s="2"/>
@@ -1929,22 +2315,22 @@
         <v>219</v>
       </c>
       <c r="N15" s="6">
-        <f>M15/255</f>
+        <f t="shared" si="2"/>
         <v>0.85882352941176465</v>
       </c>
       <c r="O15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>180.35294117647058</v>
       </c>
       <c r="P15" s="4">
         <v>0.8</v>
       </c>
       <c r="Q15" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>29.64705882352942</v>
       </c>
       <c r="R15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="T15" s="2" t="s">
@@ -1956,25 +2342,25 @@
         <v>9</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>229.5</v>
       </c>
       <c r="D16" s="7">
         <v>0.9</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="F16" s="7">
-        <f>100%-H16</f>
+        <f t="shared" si="0"/>
         <v>0.85714285714285721</v>
       </c>
       <c r="G16" s="2">
         <v>30</v>
       </c>
       <c r="H16" s="3">
-        <f>G16/$G$5</f>
+        <f t="shared" si="1"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="J16" s="2"/>
@@ -1985,22 +2371,22 @@
         <v>238</v>
       </c>
       <c r="N16" s="6">
-        <f>M16/255</f>
+        <f t="shared" si="2"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>196</v>
       </c>
       <c r="P16" s="4">
         <v>0.9</v>
       </c>
       <c r="Q16" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="T16" s="2" t="s">
@@ -2012,25 +2398,25 @@
         <v>10</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>210</v>
       </c>
       <c r="F17" s="7">
-        <f>100%-H17</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <f>G17/$G$5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17" s="2"/>
@@ -2041,22 +2427,22 @@
         <v>255</v>
       </c>
       <c r="N17" s="6">
-        <f>M17/255</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="P17" s="4">
         <v>1</v>
       </c>
       <c r="Q17" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T17" s="2" t="s">
@@ -2074,7 +2460,7 @@
       </c>
       <c r="G21">
         <f>G60</f>
-        <v>0.71428571428571397</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="H21" s="9">
         <f>G48</f>
@@ -2087,7 +2473,7 @@
       </c>
       <c r="G22">
         <f>G61</f>
-        <v>0.28571428571428603</v>
+        <v>0.29166666666666674</v>
       </c>
       <c r="H22" s="4">
         <f>G49</f>
@@ -2159,17 +2545,17 @@
         <v>0</v>
       </c>
       <c r="G27" s="28">
-        <f>(aa*D27*D27+bb*D27+cc)</f>
+        <f t="shared" ref="G27:G45" si="8">(aa*D27*D27+bb*D27+cc)</f>
         <v>0</v>
       </c>
       <c r="H27" s="14">
-        <f>a*D27+b</f>
+        <f t="shared" ref="H27:H45" si="9">a*D27+b</f>
         <v>-0.18181818181818185</v>
       </c>
     </row>
     <row r="28" spans="2:20">
       <c r="C28" s="8">
-        <f t="shared" ref="C28:C45" si="5">D28*100</f>
+        <f t="shared" ref="C28:C45" si="10">D28*100</f>
         <v>10</v>
       </c>
       <c r="D28" s="4">
@@ -2180,17 +2566,17 @@
         <v>2.3809523809523836E-2</v>
       </c>
       <c r="G28" s="28">
-        <f>(aa*D28*D28+bb*D28+cc)</f>
-        <v>3.5714285714285747E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.6250000000000004E-2</v>
       </c>
       <c r="H28" s="4">
-        <f>a*D28+b</f>
+        <f t="shared" si="9"/>
         <v>-6.5909090909090931E-2</v>
       </c>
     </row>
     <row r="29" spans="2:20">
       <c r="C29" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="D29" s="4">
@@ -2201,17 +2587,17 @@
         <v>4.7619047619047672E-2</v>
       </c>
       <c r="G29" s="28">
-        <f>(aa*D29*D29+bb*D29+cc)</f>
-        <v>8.5714285714285771E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.6666666666666684E-2</v>
       </c>
       <c r="H29" s="4">
-        <f>a*D29+b</f>
+        <f t="shared" si="9"/>
         <v>4.9999999999999989E-2</v>
       </c>
     </row>
     <row r="30" spans="2:20">
       <c r="C30" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>24.313725490196077</v>
       </c>
       <c r="D30" s="12">
@@ -2224,17 +2610,17 @@
         <v>0.1</v>
       </c>
       <c r="G30" s="28">
-        <f>(aa*D30*D30+bb*D30+cc)</f>
-        <v>0.11169330477288961</v>
+        <f t="shared" si="8"/>
+        <v>0.11278867102396514</v>
       </c>
       <c r="H30" s="4">
-        <f>a*D30+b</f>
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="31" spans="2:20">
       <c r="C31" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="D31" s="4">
@@ -2245,17 +2631,17 @@
         <v>0.1428571428571429</v>
       </c>
       <c r="G31" s="28">
-        <f>(aa*D31*D31+bb*D31+cc)</f>
-        <v>0.15000000000000008</v>
+        <f t="shared" si="8"/>
+        <v>0.15125</v>
       </c>
       <c r="H31" s="4">
-        <f>a*D31+b</f>
+        <f t="shared" si="9"/>
         <v>0.16590909090909087</v>
       </c>
     </row>
     <row r="32" spans="2:20">
       <c r="C32" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>36.078431372549019</v>
       </c>
       <c r="D32" s="4">
@@ -2267,17 +2653,17 @@
         <v>0.2</v>
       </c>
       <c r="G32" s="28">
-        <f>(aa*D32*D32+bb*D32+cc)</f>
-        <v>0.19605646180040651</v>
+        <f t="shared" si="8"/>
+        <v>0.19742919389978214</v>
       </c>
       <c r="H32" s="4">
-        <f>a*D32+b</f>
+        <f t="shared" si="9"/>
         <v>0.23636363636363636</v>
       </c>
     </row>
     <row r="33" spans="3:17">
       <c r="C33" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="D33" s="4">
@@ -2288,17 +2674,17 @@
         <v>0.23809523809523814</v>
       </c>
       <c r="G33" s="28">
-        <f>(aa*D33*D33+bb*D33+cc)</f>
-        <v>0.22857142857142865</v>
+        <f t="shared" si="8"/>
+        <v>0.23000000000000004</v>
       </c>
       <c r="H33" s="4">
-        <f>a*D33+b</f>
+        <f t="shared" si="9"/>
         <v>0.28181818181818186</v>
       </c>
     </row>
     <row r="34" spans="3:17">
       <c r="C34" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>45.490196078431374</v>
       </c>
       <c r="D34" s="4">
@@ -2310,17 +2696,17 @@
         <v>0.3</v>
       </c>
       <c r="G34" s="28">
-        <f>(aa*D34*D34+bb*D34+cc)</f>
-        <v>0.2777832701708135</v>
+        <f t="shared" si="8"/>
+        <v>0.27925925925925926</v>
       </c>
       <c r="H34" s="4">
-        <f>a*D34+b</f>
+        <f t="shared" si="9"/>
         <v>0.34545454545454546</v>
       </c>
     </row>
     <row r="35" spans="3:17">
       <c r="C35" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="D35" s="4">
@@ -2331,17 +2717,17 @@
         <v>0.33333333333333337</v>
       </c>
       <c r="G35" s="28">
-        <f>(aa*D35*D35+bb*D35+cc)</f>
-        <v>0.32142857142857151</v>
+        <f t="shared" si="8"/>
+        <v>0.32291666666666669</v>
       </c>
       <c r="H35" s="4">
-        <f>a*D35+b</f>
+        <f t="shared" si="9"/>
         <v>0.39772727272727271</v>
       </c>
     </row>
     <row r="36" spans="3:17">
       <c r="C36" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="D36" s="14">
@@ -2353,17 +2739,17 @@
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="28">
-        <f>(aa*D36*D36+bb*D36+cc)</f>
-        <v>0.4285714285714286</v>
+        <f t="shared" si="8"/>
+        <v>0.43</v>
       </c>
       <c r="H36" s="14">
-        <f>a*D36+b</f>
+        <f t="shared" si="9"/>
         <v>0.51363636363636356</v>
       </c>
     </row>
     <row r="37" spans="3:17">
       <c r="C37" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>63.529411764705877</v>
       </c>
       <c r="D37" s="4">
@@ -2375,17 +2761,17 @@
         <v>0.5</v>
       </c>
       <c r="G37" s="28">
-        <f>(aa*D37*D37+bb*D37+cc)</f>
-        <v>0.46979733069698471</v>
+        <f t="shared" si="8"/>
+        <v>0.4711764705882352</v>
       </c>
       <c r="H37" s="4">
-        <f>a*D37+b</f>
+        <f t="shared" si="9"/>
         <v>0.55454545454545445</v>
       </c>
     </row>
     <row r="38" spans="3:17">
       <c r="C38" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="D38" s="4">
@@ -2396,17 +2782,17 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="G38" s="28">
-        <f>(aa*D38*D38+bb*D38+cc)</f>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="8"/>
+        <v>0.55125000000000002</v>
       </c>
       <c r="H38" s="4">
-        <f>a*D38+b</f>
+        <f t="shared" si="9"/>
         <v>0.62954545454545452</v>
       </c>
     </row>
     <row r="39" spans="3:17">
       <c r="C39" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>71.764705882352942</v>
       </c>
       <c r="D39" s="4">
@@ -2418,17 +2804,17 @@
         <v>0.6</v>
       </c>
       <c r="G39" s="28">
-        <f>(aa*D39*D39+bb*D39+cc)</f>
-        <v>0.5729115175481958</v>
+        <f t="shared" si="8"/>
+        <v>0.57411764705882362</v>
       </c>
       <c r="H39" s="4">
-        <f>a*D39+b</f>
+        <f t="shared" si="9"/>
         <v>0.65</v>
       </c>
     </row>
     <row r="40" spans="3:17">
       <c r="C40" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>78.82352941176471</v>
       </c>
       <c r="D40" s="4">
@@ -2440,17 +2826,17 @@
         <v>0.7</v>
       </c>
       <c r="G40" s="28">
-        <f>(aa*D40*D40+bb*D40+cc)</f>
-        <v>0.66900642609985184</v>
+        <f t="shared" si="8"/>
+        <v>0.66999999999999993</v>
       </c>
       <c r="H40" s="4">
-        <f>a*D40+b</f>
+        <f t="shared" si="9"/>
         <v>0.73181818181818181</v>
       </c>
     </row>
     <row r="41" spans="3:17">
       <c r="C41" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="D41" s="4">
@@ -2461,17 +2847,17 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="G41" s="28">
-        <f>(aa*D41*D41+bb*D41+cc)</f>
-        <v>0.68571428571428583</v>
+        <f t="shared" si="8"/>
+        <v>0.68666666666666676</v>
       </c>
       <c r="H41" s="4">
-        <f>a*D41+b</f>
+        <f t="shared" si="9"/>
         <v>0.74545454545454548</v>
       </c>
     </row>
     <row r="42" spans="3:17">
       <c r="C42" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>85.882352941176464</v>
       </c>
       <c r="D42" s="4">
@@ -2483,17 +2869,17 @@
         <v>0.8</v>
       </c>
       <c r="G42" s="28">
-        <f>(aa*D42*D42+bb*D42+cc)</f>
-        <v>0.7722194760257044</v>
+        <f t="shared" si="8"/>
+        <v>0.77294117647058824</v>
       </c>
       <c r="H42" s="4">
-        <f>a*D42+b</f>
+        <f t="shared" si="9"/>
         <v>0.8136363636363636</v>
       </c>
     </row>
     <row r="43" spans="3:17">
       <c r="C43" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="D43" s="4">
@@ -2504,17 +2890,17 @@
         <v>0.85714285714285721</v>
       </c>
       <c r="G43" s="28">
-        <f>(aa*D43*D43+bb*D43+cc)</f>
-        <v>0.83571428571428574</v>
+        <f t="shared" si="8"/>
+        <v>0.83625000000000005</v>
       </c>
       <c r="H43" s="4">
-        <f>a*D43+b</f>
+        <f t="shared" si="9"/>
         <v>0.86136363636363633</v>
       </c>
     </row>
     <row r="44" spans="3:17">
       <c r="C44" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>93.333333333333329</v>
       </c>
       <c r="D44" s="12">
@@ -2527,17 +2913,17 @@
         <v>0.9</v>
       </c>
       <c r="G44" s="28">
-        <f>(aa*D44*D44+bb*D44+cc)</f>
-        <v>0.88888888888888895</v>
+        <f t="shared" si="8"/>
+        <v>0.88925925925925942</v>
       </c>
       <c r="H44" s="4">
-        <f>a*D44+b</f>
+        <f t="shared" si="9"/>
         <v>0.90000000000000013</v>
       </c>
     </row>
     <row r="45" spans="3:17">
       <c r="C45" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="D45" s="14">
@@ -2552,11 +2938,11 @@
         <v>1</v>
       </c>
       <c r="G45" s="28">
-        <f>(aa*D45*D45+bb*D45+cc)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H45" s="14">
-        <f>a*D45+b</f>
+        <f t="shared" si="9"/>
         <v>0.97727272727272729</v>
       </c>
     </row>
@@ -2572,7 +2958,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="3:7">
+    <row r="49" spans="3:17">
       <c r="F49" t="s">
         <v>17</v>
       </c>
@@ -2581,7 +2967,7 @@
         <v>-0.18181818181818185</v>
       </c>
     </row>
-    <row r="52" spans="3:7" ht="16" thickBot="1">
+    <row r="52" spans="3:17" ht="16" thickBot="1">
       <c r="C52" t="s">
         <v>53</v>
       </c>
@@ -2591,8 +2977,21 @@
       <c r="G52" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="53" spans="3:7">
+      <c r="L52">
+        <f>G60</f>
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="N52" t="s">
+        <v>45</v>
+      </c>
+      <c r="O52" t="s">
+        <v>57</v>
+      </c>
+      <c r="P52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17">
       <c r="C53" s="16">
         <f>D53*D53</f>
         <v>0</v>
@@ -2611,14 +3010,31 @@
         <f>E27</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:7">
+      <c r="L53">
+        <f>G61</f>
+        <v>0.29166666666666674</v>
+      </c>
+      <c r="N53" s="14">
+        <f>$L$52*O53*O53+$L$53*O53+$L$54</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="14">
+        <v>0</v>
+      </c>
+      <c r="P53" s="6">
+        <f>$Q$88*N53*N53+$Q$89*N53+$Q$90</f>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17">
       <c r="C54" s="19">
-        <f t="shared" ref="C54:C55" si="6">D54*D54</f>
+        <f t="shared" ref="C54:C55" si="11">D54*D54</f>
         <v>0.36</v>
       </c>
       <c r="D54" s="20">
-        <f>D36</f>
         <v>0.6</v>
       </c>
       <c r="E54" s="21">
@@ -2628,13 +3044,30 @@
         <v>17</v>
       </c>
       <c r="G54" s="26">
-        <f>E36</f>
-        <v>0.4285714285714286</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7" ht="16" thickBot="1">
+        <v>0.43</v>
+      </c>
+      <c r="L54">
+        <f>G62</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="6">
+        <f>$L$52*O54*O54+$L$53*O54+$L$54</f>
+        <v>9.845000000000001E-2</v>
+      </c>
+      <c r="O54" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="P54" s="6">
+        <f t="shared" ref="P54:P63" si="12">$Q$88*N54*N54+$Q$89*N54+$Q$90</f>
+        <v>0.17452794071428573</v>
+      </c>
+      <c r="Q54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" ht="16" thickBot="1">
       <c r="C55" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D55" s="23">
@@ -2651,8 +3084,70 @@
         <f>E45</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="3:7" ht="16" thickBot="1">
+      <c r="N55" s="6">
+        <f>$L$52*O55*O55+$L$53*O55+$L$54</f>
+        <v>0.1968</v>
+      </c>
+      <c r="O55" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="P55" s="6">
+        <f t="shared" si="12"/>
+        <v>0.33228836571428566</v>
+      </c>
+      <c r="Q55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="3:17">
+      <c r="N56" s="14">
+        <f>$L$52*O56*O56+$L$53*O56+$L$54</f>
+        <v>0.30320000000000003</v>
+      </c>
+      <c r="O56" s="14">
+        <v>0.48</v>
+      </c>
+      <c r="P56" s="6">
+        <f t="shared" si="12"/>
+        <v>0.48428836571428574</v>
+      </c>
+      <c r="Q56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="3:17">
+      <c r="N57" s="6">
+        <f>$L$52*O57*O57+$L$53*O57+$L$54</f>
+        <v>0.40190104166666663</v>
+      </c>
+      <c r="O57" s="4">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="P57" s="6">
+        <f t="shared" si="12"/>
+        <v>0.6079381225585937</v>
+      </c>
+      <c r="Q57">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17">
+      <c r="N58" s="6">
+        <f>$L$52*O58*O58+$L$53*O58+$L$54</f>
+        <v>0.50105</v>
+      </c>
+      <c r="O58" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="P58" s="6">
+        <f t="shared" si="12"/>
+        <v>0.71533476928571427</v>
+      </c>
+      <c r="Q58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" ht="16" thickBot="1">
       <c r="C59" t="s">
         <v>54</v>
       </c>
@@ -2662,8 +3157,22 @@
       <c r="G59" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="3:7">
+      <c r="N59" s="6">
+        <f>$L$52*O59*O59+$L$53*O59+$L$54</f>
+        <v>0.60371666666666668</v>
+      </c>
+      <c r="O59" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="P59" s="6">
+        <f t="shared" si="12"/>
+        <v>0.80878196928571433</v>
+      </c>
+      <c r="Q59">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17">
       <c r="C60" s="29">
         <f t="array" ref="C60:E62">MINVERSE(C53:E55)</f>
         <v>1.666666666666667</v>
@@ -2680,10 +3189,24 @@
       </c>
       <c r="G60" s="35">
         <f t="array" ref="G60:G62">MMULT(C60:E62,F60:F62)</f>
-        <v>0.71428571428571397</v>
-      </c>
-    </row>
-    <row r="61" spans="3:7">
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="N60" s="6">
+        <f>$L$52*O60*O60+$L$53*O60+$L$54</f>
+        <v>0.7009875000000001</v>
+      </c>
+      <c r="O60" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="P60" s="6">
+        <f t="shared" si="12"/>
+        <v>0.88064809272321432</v>
+      </c>
+      <c r="Q60">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17">
       <c r="C61" s="31">
         <v>-2.666666666666667</v>
       </c>
@@ -2694,14 +3217,28 @@
         <v>-1.5</v>
       </c>
       <c r="F61" s="4">
-        <f t="shared" ref="F61:F62" si="7">G54</f>
-        <v>0.4285714285714286</v>
+        <f t="shared" ref="F61:F62" si="13">G54</f>
+        <v>0.43</v>
       </c>
       <c r="G61" s="36">
-        <v>0.28571428571428603</v>
-      </c>
-    </row>
-    <row r="62" spans="3:7" ht="16" thickBot="1">
+        <v>0.29166666666666674</v>
+      </c>
+      <c r="N61" s="6">
+        <f>$L$52*O61*O61+$L$53*O61+$L$54</f>
+        <v>0.79752604166666663</v>
+      </c>
+      <c r="O61" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="P61" s="6">
+        <f t="shared" si="12"/>
+        <v>0.93593597412109375</v>
+      </c>
+      <c r="Q61">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" ht="16" thickBot="1">
       <c r="C62" s="33">
         <v>1</v>
       </c>
@@ -2712,10 +3249,173 @@
         <v>0</v>
       </c>
       <c r="F62" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G62" s="37">
+        <v>0</v>
+      </c>
+      <c r="N62" s="6">
+        <f>$L$52*O62*O62+$L$53*O62+$L$54</f>
+        <v>0.90005000000000002</v>
+      </c>
+      <c r="O62" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="P62" s="6">
+        <f t="shared" si="12"/>
+        <v>0.97715856928571421</v>
+      </c>
+      <c r="Q62">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17">
+      <c r="N63" s="14">
+        <f>$L$52*O63*O63+$L$53*O63+$L$54</f>
+        <v>1</v>
+      </c>
+      <c r="O63" s="14">
+        <v>1</v>
+      </c>
+      <c r="P63" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="13:19" ht="16" thickBot="1">
+      <c r="M82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="13:19">
+      <c r="M83" s="29">
+        <f>N83*N83</f>
+        <v>0</v>
+      </c>
+      <c r="N83" s="30">
+        <v>0</v>
+      </c>
+      <c r="O83" s="18">
+        <v>1</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q83" s="25">
+        <v>0</v>
+      </c>
+      <c r="S83" s="4"/>
+    </row>
+    <row r="84" spans="13:19">
+      <c r="M84" s="19">
+        <f>N84*N84</f>
+        <v>0.09</v>
+      </c>
+      <c r="N84" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="O84" s="21">
+        <v>1</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q84" s="12">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="85" spans="13:19" ht="16" thickBot="1">
+      <c r="M85" s="22">
+        <f>N85*N85</f>
+        <v>1</v>
+      </c>
+      <c r="N85" s="23">
+        <v>1</v>
+      </c>
+      <c r="O85" s="24">
+        <v>1</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q85" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="13:19" ht="16" thickBot="1">
+      <c r="M87" t="s">
+        <v>54</v>
+      </c>
+      <c r="P87" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="13:19">
+      <c r="M88">
+        <f t="array" ref="M88:O90">MINVERSE(M83:O85)</f>
+        <v>3.3333333333333339</v>
+      </c>
+      <c r="N88">
+        <v>-4.7619047619047619</v>
+      </c>
+      <c r="O88">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="P88" s="4">
+        <f>Q83</f>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="39">
+        <f t="array" ref="Q88:Q90">MMULT(M88:O90,P88:P90)</f>
+        <v>-0.85714285714285698</v>
+      </c>
+    </row>
+    <row r="89" spans="13:19">
+      <c r="M89">
+        <v>-4.3333333333333339</v>
+      </c>
+      <c r="N89">
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="O89">
+        <v>-0.42857142857142855</v>
+      </c>
+      <c r="P89" s="4">
+        <f t="shared" ref="P89:P90" si="14">Q84</f>
+        <v>0.48</v>
+      </c>
+      <c r="Q89" s="40">
+        <v>1.857142857142857</v>
+      </c>
+    </row>
+    <row r="90" spans="13:19" ht="16" thickBot="1">
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90" s="4">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q90" s="41">
         <v>0</v>
       </c>
     </row>
